--- a/Kode/Server2/Logs/lora_node3/2020-05-23.xlsx
+++ b/Kode/Server2/Logs/lora_node3/2020-05-23.xlsx
@@ -403,7 +403,7 @@
         <v>37.77</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08264075999999999</v>
+        <v>82.64076</v>
       </c>
     </row>
     <row r="3">
@@ -423,7 +423,7 @@
         <v>33.3</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07272719999999999</v>
+        <v>72.7272</v>
       </c>
     </row>
     <row r="4">
@@ -443,7 +443,7 @@
         <v>33.195</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07249788000000001</v>
+        <v>72.49788000000001</v>
       </c>
     </row>
     <row r="5">
@@ -463,7 +463,7 @@
         <v>33.9</v>
       </c>
       <c r="F5" t="n">
-        <v>0.073902</v>
+        <v>73.902</v>
       </c>
     </row>
     <row r="6">
@@ -483,7 +483,7 @@
         <v>20.955</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02841498</v>
+        <v>28.41498</v>
       </c>
     </row>
     <row r="7">
@@ -503,7 +503,7 @@
         <v>33.405</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07322376000000001</v>
+        <v>73.22376000000001</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         <v>31.155</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0679179</v>
+        <v>67.9179</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         <v>27.945</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06114366</v>
+        <v>61.14366</v>
       </c>
     </row>
     <row r="10">
@@ -563,7 +563,7 @@
         <v>25.755</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05676402000000001</v>
+        <v>56.76402000000001</v>
       </c>
     </row>
     <row r="11">
@@ -583,7 +583,7 @@
         <v>24.84</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05395248</v>
+        <v>53.95247999999999</v>
       </c>
     </row>
     <row r="12">
@@ -603,7 +603,7 @@
         <v>25.98</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05642856</v>
+        <v>56.42856</v>
       </c>
     </row>
     <row r="13">
@@ -623,7 +623,7 @@
         <v>27.45</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06039</v>
+        <v>60.39</v>
       </c>
     </row>
     <row r="14">
@@ -643,7 +643,7 @@
         <v>30.87</v>
       </c>
       <c r="F14" t="n">
-        <v>0.06717312</v>
+        <v>67.17312</v>
       </c>
     </row>
     <row r="15">
@@ -663,7 +663,7 @@
         <v>25.65</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0560196</v>
+        <v>56.0196</v>
       </c>
     </row>
     <row r="16">
@@ -683,7 +683,7 @@
         <v>26.265</v>
       </c>
       <c r="F16" t="n">
-        <v>0.05694252</v>
+        <v>56.94252</v>
       </c>
     </row>
     <row r="17">
@@ -703,7 +703,7 @@
         <v>26.13</v>
       </c>
       <c r="F17" t="n">
-        <v>0.05664984000000001</v>
+        <v>56.64984</v>
       </c>
     </row>
     <row r="18">
@@ -723,7 +723,7 @@
         <v>26.175</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0570615</v>
+        <v>57.0615</v>
       </c>
     </row>
     <row r="19">
@@ -743,7 +743,7 @@
         <v>25.995</v>
       </c>
       <c r="F19" t="n">
-        <v>0.05635716</v>
+        <v>56.35716</v>
       </c>
     </row>
     <row r="20">
@@ -763,7 +763,7 @@
         <v>20.325</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0438207</v>
+        <v>43.8207</v>
       </c>
     </row>
     <row r="21">
@@ -783,7 +783,7 @@
         <v>19.995</v>
       </c>
       <c r="F21" t="n">
-        <v>0.04390902000000001</v>
+        <v>43.90902000000001</v>
       </c>
     </row>
     <row r="22">
@@ -803,7 +803,7 @@
         <v>19.08</v>
       </c>
       <c r="F22" t="n">
-        <v>0.04113648</v>
+        <v>41.13648000000001</v>
       </c>
     </row>
     <row r="23">
@@ -823,7 +823,7 @@
         <v>17.685</v>
       </c>
       <c r="F23" t="n">
-        <v>0.03862404</v>
+        <v>38.62404</v>
       </c>
     </row>
     <row r="24">
@@ -843,7 +843,7 @@
         <v>17.295</v>
       </c>
       <c r="F24" t="n">
-        <v>0.03756474</v>
+        <v>37.56474</v>
       </c>
     </row>
     <row r="25">
@@ -863,7 +863,7 @@
         <v>18.3</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0392352</v>
+        <v>39.2352</v>
       </c>
     </row>
     <row r="26">
@@ -883,7 +883,7 @@
         <v>19.185</v>
       </c>
       <c r="F26" t="n">
-        <v>0.04120938</v>
+        <v>41.20938</v>
       </c>
     </row>
     <row r="27">
@@ -903,7 +903,7 @@
         <v>20.145</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0435132</v>
+        <v>43.5132</v>
       </c>
     </row>
     <row r="28">
@@ -923,7 +923,7 @@
         <v>21.315</v>
       </c>
       <c r="F28" t="n">
-        <v>0.04680773999999999</v>
+        <v>46.80773999999999</v>
       </c>
     </row>
     <row r="29">
@@ -943,7 +943,7 @@
         <v>6.27</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0040128</v>
+        <v>4.0128</v>
       </c>
     </row>
     <row r="30">
@@ -1143,7 +1143,7 @@
         <v>26.43</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0301302</v>
+        <v>30.1302</v>
       </c>
     </row>
     <row r="40">
@@ -1163,7 +1163,7 @@
         <v>45.495</v>
       </c>
       <c r="F40" t="n">
-        <v>0.08261892</v>
+        <v>82.61892</v>
       </c>
     </row>
     <row r="41">
@@ -1183,7 +1183,7 @@
         <v>35.1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.07637760000000002</v>
+        <v>76.37760000000002</v>
       </c>
     </row>
     <row r="42">
@@ -1203,7 +1203,7 @@
         <v>36.63</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07999992</v>
+        <v>79.99992</v>
       </c>
     </row>
     <row r="43">
@@ -1223,7 +1223,7 @@
         <v>42.66</v>
       </c>
       <c r="F43" t="n">
-        <v>0.09334008000000001</v>
+        <v>93.34008</v>
       </c>
     </row>
     <row r="44">
@@ -1243,7 +1243,7 @@
         <v>39.3</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0858312</v>
+        <v>85.8312</v>
       </c>
     </row>
     <row r="45">
@@ -1263,7 +1263,7 @@
         <v>41.43</v>
       </c>
       <c r="F45" t="n">
-        <v>0.09064884000000001</v>
+        <v>90.64884000000001</v>
       </c>
     </row>
     <row r="46">
@@ -1283,7 +1283,7 @@
         <v>44.37</v>
       </c>
       <c r="F46" t="n">
-        <v>0.09708156</v>
+        <v>97.08156</v>
       </c>
     </row>
     <row r="47">
@@ -1303,7 +1303,7 @@
         <v>44.07</v>
       </c>
       <c r="F47" t="n">
-        <v>0.09660144000000001</v>
+        <v>96.60144000000001</v>
       </c>
     </row>
     <row r="48">
@@ -1323,7 +1323,7 @@
         <v>46.275</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1010646</v>
+        <v>101.0646</v>
       </c>
     </row>
     <row r="49">
@@ -1343,7 +1343,7 @@
         <v>48.285</v>
       </c>
       <c r="F49" t="n">
-        <v>0.10584072</v>
+        <v>105.84072</v>
       </c>
     </row>
     <row r="50">
@@ -1363,7 +1363,7 @@
         <v>36.465</v>
       </c>
       <c r="F50" t="n">
-        <v>0.07993128000000001</v>
+        <v>79.93128</v>
       </c>
     </row>
     <row r="51">
@@ -1383,7 +1383,7 @@
         <v>24.75</v>
       </c>
       <c r="F51" t="n">
-        <v>0.05346</v>
+        <v>53.46</v>
       </c>
     </row>
     <row r="52">
@@ -1403,7 +1403,7 @@
         <v>24.24</v>
       </c>
       <c r="F52" t="n">
-        <v>0.05264928</v>
+        <v>52.64928</v>
       </c>
     </row>
     <row r="53">
@@ -1423,7 +1423,7 @@
         <v>24.705</v>
       </c>
       <c r="F53" t="n">
-        <v>0.054351</v>
+        <v>54.351</v>
       </c>
     </row>
     <row r="54">
@@ -1443,7 +1443,7 @@
         <v>29.64</v>
       </c>
       <c r="F54" t="n">
-        <v>0.06437808000000002</v>
+        <v>64.37808000000001</v>
       </c>
     </row>
     <row r="55">
@@ -1463,7 +1463,7 @@
         <v>46.755</v>
       </c>
       <c r="F55" t="n">
-        <v>0.10211292</v>
+        <v>102.11292</v>
       </c>
     </row>
     <row r="56">
@@ -1483,7 +1483,7 @@
         <v>32.58</v>
       </c>
       <c r="F56" t="n">
-        <v>0.07089408</v>
+        <v>70.89408</v>
       </c>
     </row>
     <row r="57">
@@ -1503,7 +1503,7 @@
         <v>27.945</v>
       </c>
       <c r="F57" t="n">
-        <v>0.06069654000000001</v>
+        <v>60.69654000000001</v>
       </c>
     </row>
     <row r="58">
@@ -1523,7 +1523,7 @@
         <v>26.325</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0562302</v>
+        <v>56.2302</v>
       </c>
     </row>
     <row r="59">
@@ -1543,7 +1543,7 @@
         <v>26.97</v>
       </c>
       <c r="F59" t="n">
-        <v>0.05890248000000001</v>
+        <v>58.90248</v>
       </c>
     </row>
     <row r="60">
@@ -1563,7 +1563,7 @@
         <v>27.99</v>
       </c>
       <c r="F60" t="n">
-        <v>0.06146604</v>
+        <v>61.46604</v>
       </c>
     </row>
     <row r="61">
@@ -1583,7 +1583,7 @@
         <v>28.845</v>
       </c>
       <c r="F61" t="n">
-        <v>0.06322824</v>
+        <v>63.22824000000001</v>
       </c>
     </row>
     <row r="62">
@@ -1603,7 +1603,7 @@
         <v>27.015</v>
       </c>
       <c r="F62" t="n">
-        <v>0.05910882000000001</v>
+        <v>59.10882000000002</v>
       </c>
     </row>
     <row r="63">
@@ -1623,7 +1623,7 @@
         <v>26.25</v>
       </c>
       <c r="F63" t="n">
-        <v>0.057225</v>
+        <v>57.225</v>
       </c>
     </row>
     <row r="64">
@@ -1643,7 +1643,7 @@
         <v>26.52</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0572832</v>
+        <v>57.2832</v>
       </c>
     </row>
     <row r="65">
@@ -1663,7 +1663,7 @@
         <v>27.96</v>
       </c>
       <c r="F65" t="n">
-        <v>0.06072912</v>
+        <v>60.72911999999999</v>
       </c>
     </row>
     <row r="66">
@@ -1683,7 +1683,7 @@
         <v>28.71</v>
       </c>
       <c r="F66" t="n">
-        <v>0.06270263999999999</v>
+        <v>62.70263999999999</v>
       </c>
     </row>
     <row r="67">
@@ -1703,7 +1703,7 @@
         <v>29.415</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06424236</v>
+        <v>64.24236000000001</v>
       </c>
     </row>
     <row r="68">
@@ -1723,7 +1723,7 @@
         <v>38.16</v>
       </c>
       <c r="F68" t="n">
-        <v>0.08364672000000001</v>
+        <v>83.64672</v>
       </c>
     </row>
     <row r="69">
@@ -1743,7 +1743,7 @@
         <v>41.34</v>
       </c>
       <c r="F69" t="n">
-        <v>0.09045192000000001</v>
+        <v>90.45192</v>
       </c>
     </row>
     <row r="70">
@@ -1763,7 +1763,7 @@
         <v>39.495</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08625708</v>
+        <v>86.25708</v>
       </c>
     </row>
     <row r="71">
@@ -1783,7 +1783,7 @@
         <v>38.4</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0838656</v>
+        <v>83.8656</v>
       </c>
     </row>
     <row r="72">
@@ -1803,7 +1803,7 @@
         <v>36.705</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08016371999999999</v>
+        <v>80.16372</v>
       </c>
     </row>
     <row r="73">
@@ -1823,7 +1823,7 @@
         <v>27.375</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06000600000000001</v>
+        <v>60.00600000000001</v>
       </c>
     </row>
     <row r="74">
@@ -1843,7 +1843,7 @@
         <v>28.08</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0612144</v>
+        <v>61.2144</v>
       </c>
     </row>
     <row r="75">
@@ -1863,7 +1863,7 @@
         <v>32.28</v>
       </c>
       <c r="F75" t="n">
-        <v>0.07062864000000001</v>
+        <v>70.62864</v>
       </c>
     </row>
     <row r="76">
@@ -1883,7 +1883,7 @@
         <v>33.81</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07397628000000002</v>
+        <v>73.97628000000002</v>
       </c>
     </row>
     <row r="77">
@@ -1903,7 +1903,7 @@
         <v>28.125</v>
       </c>
       <c r="F77" t="n">
-        <v>0.06131250000000001</v>
+        <v>61.31250000000001</v>
       </c>
     </row>
     <row r="78">
@@ -1923,7 +1923,7 @@
         <v>22.455</v>
       </c>
       <c r="F78" t="n">
-        <v>0.04787406</v>
+        <v>47.87406</v>
       </c>
     </row>
     <row r="79">
@@ -1943,7 +1943,7 @@
         <v>23.145</v>
       </c>
       <c r="F79" t="n">
-        <v>0.05064126</v>
+        <v>50.64126</v>
       </c>
     </row>
     <row r="80">
@@ -1963,7 +1963,7 @@
         <v>24.06</v>
       </c>
       <c r="F80" t="n">
-        <v>0.05216208000000001</v>
+        <v>52.16208000000001</v>
       </c>
     </row>
     <row r="81">
@@ -1983,7 +1983,7 @@
         <v>22.11</v>
       </c>
       <c r="F81" t="n">
-        <v>0.04837668</v>
+        <v>48.37668</v>
       </c>
     </row>
     <row r="82">
@@ -2003,7 +2003,7 @@
         <v>21.24</v>
       </c>
       <c r="F82" t="n">
-        <v>0.04553856</v>
+        <v>45.53856</v>
       </c>
     </row>
     <row r="83">
@@ -2023,7 +2023,7 @@
         <v>19.335</v>
       </c>
       <c r="F83" t="n">
-        <v>0.04315572000000001</v>
+        <v>43.15572000000001</v>
       </c>
     </row>
     <row r="84">
@@ -2043,7 +2043,7 @@
         <v>18.81</v>
       </c>
       <c r="F84" t="n">
-        <v>0.04047912</v>
+        <v>40.47912</v>
       </c>
     </row>
     <row r="85">
@@ -2063,7 +2063,7 @@
         <v>19.575</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0422037</v>
+        <v>42.2037</v>
       </c>
     </row>
     <row r="86">
@@ -2083,7 +2083,7 @@
         <v>20.265</v>
       </c>
       <c r="F86" t="n">
-        <v>0.04393452</v>
+        <v>43.93452</v>
       </c>
     </row>
     <row r="87">
@@ -2103,7 +2103,7 @@
         <v>20.925</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0457839</v>
+        <v>45.7839</v>
       </c>
     </row>
     <row r="88">
@@ -2123,7 +2123,7 @@
         <v>19.275</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0417882</v>
+        <v>41.7882</v>
       </c>
     </row>
     <row r="89">
@@ -2143,7 +2143,7 @@
         <v>18.405</v>
       </c>
       <c r="F89" t="n">
-        <v>0.04041738</v>
+        <v>40.41738</v>
       </c>
     </row>
     <row r="90">
@@ -2163,7 +2163,7 @@
         <v>18.825</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0408879</v>
+        <v>40.88789999999999</v>
       </c>
     </row>
     <row r="91">
@@ -2183,7 +2183,7 @@
         <v>19.065</v>
       </c>
       <c r="F91" t="n">
-        <v>0.04110414</v>
+        <v>41.10413999999999</v>
       </c>
     </row>
     <row r="92">
@@ -2203,7 +2203,7 @@
         <v>19.98</v>
       </c>
       <c r="F92" t="n">
-        <v>0.04331664</v>
+        <v>43.31664</v>
       </c>
     </row>
     <row r="93">
@@ -2223,7 +2223,7 @@
         <v>22.275</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0482031</v>
+        <v>48.2031</v>
       </c>
     </row>
     <row r="94">
@@ -2243,7 +2243,7 @@
         <v>22.23</v>
       </c>
       <c r="F94" t="n">
-        <v>0.04828356</v>
+        <v>48.28356</v>
       </c>
     </row>
     <row r="95">
@@ -2263,7 +2263,7 @@
         <v>24</v>
       </c>
       <c r="F95" t="n">
-        <v>0.052512</v>
+        <v>52.512</v>
       </c>
     </row>
     <row r="96">
@@ -2283,7 +2283,7 @@
         <v>22.335</v>
       </c>
       <c r="F96" t="n">
-        <v>0.04860096000000001</v>
+        <v>48.60096000000001</v>
       </c>
     </row>
     <row r="97">
@@ -2303,7 +2303,7 @@
         <v>17.73</v>
       </c>
       <c r="F97" t="n">
-        <v>0.03787128000000001</v>
+        <v>37.87128000000001</v>
       </c>
     </row>
     <row r="98">
@@ -2323,7 +2323,7 @@
         <v>15.195</v>
       </c>
       <c r="F98" t="n">
-        <v>0.03227418</v>
+        <v>32.27418</v>
       </c>
     </row>
     <row r="99">
@@ -2343,7 +2343,7 @@
         <v>13.59</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0296262</v>
+        <v>29.6262</v>
       </c>
     </row>
     <row r="100">
@@ -2363,7 +2363,7 @@
         <v>12.795</v>
       </c>
       <c r="F100" t="n">
-        <v>0.02727894</v>
+        <v>27.27894</v>
       </c>
     </row>
     <row r="101">
@@ -2383,7 +2383,7 @@
         <v>12.375</v>
       </c>
       <c r="F101" t="n">
-        <v>0.027027</v>
+        <v>27.027</v>
       </c>
     </row>
     <row r="102">
@@ -2403,7 +2403,7 @@
         <v>14.34</v>
       </c>
       <c r="F102" t="n">
-        <v>0.03108912</v>
+        <v>31.08912</v>
       </c>
     </row>
     <row r="103">
@@ -2423,7 +2423,7 @@
         <v>15.345</v>
       </c>
       <c r="F103" t="n">
-        <v>0.0331452</v>
+        <v>33.1452</v>
       </c>
     </row>
     <row r="104">
@@ -2443,7 +2443,7 @@
         <v>16.14</v>
       </c>
       <c r="F104" t="n">
-        <v>0.03473328</v>
+        <v>34.73328</v>
       </c>
     </row>
     <row r="105">
@@ -2463,7 +2463,7 @@
         <v>15.84</v>
       </c>
       <c r="F105" t="n">
-        <v>0.03446784</v>
+        <v>34.46784</v>
       </c>
     </row>
     <row r="106">
@@ -2483,7 +2483,7 @@
         <v>14.715</v>
       </c>
       <c r="F106" t="n">
-        <v>0.03160782</v>
+        <v>31.60782</v>
       </c>
     </row>
     <row r="107">
@@ -2503,7 +2503,7 @@
         <v>14.295</v>
       </c>
       <c r="F107" t="n">
-        <v>0.03110592</v>
+        <v>31.10592</v>
       </c>
     </row>
     <row r="108">
@@ -2523,7 +2523,7 @@
         <v>15.615</v>
       </c>
       <c r="F108" t="n">
-        <v>0.03385332000000001</v>
+        <v>33.85332000000001</v>
       </c>
     </row>
     <row r="109">
@@ -2543,7 +2543,7 @@
         <v>15.24</v>
       </c>
       <c r="F109" t="n">
-        <v>0.03334512</v>
+        <v>33.34512</v>
       </c>
     </row>
     <row r="110">
@@ -2563,7 +2563,7 @@
         <v>14.145</v>
       </c>
       <c r="F110" t="n">
-        <v>0.03077952</v>
+        <v>30.77952</v>
       </c>
     </row>
     <row r="111">
@@ -2583,7 +2583,7 @@
         <v>14.205</v>
       </c>
       <c r="F111" t="n">
-        <v>0.03062598</v>
+        <v>30.62598</v>
       </c>
     </row>
     <row r="112">
@@ -2603,7 +2603,7 @@
         <v>13.995</v>
       </c>
       <c r="F112" t="n">
-        <v>0.03101292</v>
+        <v>31.01292</v>
       </c>
     </row>
     <row r="113">
@@ -2623,7 +2623,7 @@
         <v>13.56</v>
       </c>
       <c r="F113" t="n">
-        <v>0.02907264</v>
+        <v>29.07264</v>
       </c>
     </row>
     <row r="114">
@@ -2643,7 +2643,7 @@
         <v>11.085</v>
       </c>
       <c r="F114" t="n">
-        <v>0.02389926</v>
+        <v>23.89926</v>
       </c>
     </row>
     <row r="115">
@@ -2663,7 +2663,7 @@
         <v>11.76</v>
       </c>
       <c r="F115" t="n">
-        <v>0.02549568</v>
+        <v>25.49568</v>
       </c>
     </row>
     <row r="116">
@@ -2683,7 +2683,7 @@
         <v>11.625</v>
       </c>
       <c r="F116" t="n">
-        <v>0.025203</v>
+        <v>25.203</v>
       </c>
     </row>
     <row r="117">
@@ -2703,7 +2703,7 @@
         <v>10.575</v>
       </c>
       <c r="F117" t="n">
-        <v>0.0230535</v>
+        <v>23.0535</v>
       </c>
     </row>
     <row r="118">
@@ -2723,7 +2723,7 @@
         <v>12.69</v>
       </c>
       <c r="F118" t="n">
-        <v>0.02786724</v>
+        <v>27.86724</v>
       </c>
     </row>
     <row r="119">
@@ -2743,7 +2743,7 @@
         <v>12.855</v>
       </c>
       <c r="F119" t="n">
-        <v>0.02786964</v>
+        <v>27.86964</v>
       </c>
     </row>
     <row r="120">
@@ -2763,7 +2763,7 @@
         <v>10.68</v>
       </c>
       <c r="F120" t="n">
-        <v>0.02276976</v>
+        <v>22.76976</v>
       </c>
     </row>
     <row r="121">
@@ -2783,7 +2783,7 @@
         <v>8.775</v>
       </c>
       <c r="F121" t="n">
-        <v>0.0193401</v>
+        <v>19.3401</v>
       </c>
     </row>
     <row r="122">
@@ -2803,7 +2803,7 @@
         <v>7.154999999999999</v>
       </c>
       <c r="F122" t="n">
-        <v>0.01534032</v>
+        <v>15.34032</v>
       </c>
     </row>
     <row r="123">
@@ -2823,7 +2823,7 @@
         <v>7.305</v>
       </c>
       <c r="F123" t="n">
-        <v>0.01589568</v>
+        <v>15.89568</v>
       </c>
     </row>
     <row r="124">
@@ -2843,7 +2843,7 @@
         <v>9.435</v>
       </c>
       <c r="F124" t="n">
-        <v>0.02102118</v>
+        <v>21.02118</v>
       </c>
     </row>
     <row r="125">
@@ -2863,7 +2863,7 @@
         <v>9.539999999999999</v>
       </c>
       <c r="F125" t="n">
-        <v>0.02072088</v>
+        <v>20.72088</v>
       </c>
     </row>
     <row r="126">
@@ -2883,7 +2883,7 @@
         <v>6.614999999999999</v>
       </c>
       <c r="F126" t="n">
-        <v>0.01420902</v>
+        <v>14.20902</v>
       </c>
     </row>
     <row r="127">
@@ -2903,7 +2903,7 @@
         <v>8.1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.0175932</v>
+        <v>17.5932</v>
       </c>
     </row>
     <row r="128">
@@ -2923,7 +2923,7 @@
         <v>6.899999999999999</v>
       </c>
       <c r="F128" t="n">
-        <v>0.014628</v>
+        <v>14.628</v>
       </c>
     </row>
     <row r="129">
@@ -2943,7 +2943,7 @@
         <v>7.515</v>
       </c>
       <c r="F129" t="n">
-        <v>0.01632258</v>
+        <v>16.32258</v>
       </c>
     </row>
     <row r="130">
@@ -2963,7 +2963,7 @@
         <v>8.625</v>
       </c>
       <c r="F130" t="n">
-        <v>0.018699</v>
+        <v>18.699</v>
       </c>
     </row>
     <row r="131">
@@ -2983,7 +2983,7 @@
         <v>9.764999999999999</v>
       </c>
       <c r="F131" t="n">
-        <v>0.0208971</v>
+        <v>20.8971</v>
       </c>
     </row>
     <row r="132">
@@ -3003,7 +3003,7 @@
         <v>6.885</v>
       </c>
       <c r="F132" t="n">
-        <v>0.01467882</v>
+        <v>14.67882</v>
       </c>
     </row>
     <row r="133">
@@ -3023,7 +3023,7 @@
         <v>6.555</v>
       </c>
       <c r="F133" t="n">
-        <v>0.01434234</v>
+        <v>14.34234</v>
       </c>
     </row>
     <row r="134">
@@ -3043,7 +3043,7 @@
         <v>6.285</v>
       </c>
       <c r="F134" t="n">
-        <v>0.01337448</v>
+        <v>13.37448</v>
       </c>
     </row>
     <row r="135">
@@ -3063,7 +3063,7 @@
         <v>6.765</v>
       </c>
       <c r="F135" t="n">
-        <v>0.01480182</v>
+        <v>14.80182</v>
       </c>
     </row>
     <row r="136">
@@ -3083,7 +3083,7 @@
         <v>6.18</v>
       </c>
       <c r="F136" t="n">
-        <v>0.0132252</v>
+        <v>13.2252</v>
       </c>
     </row>
     <row r="137">
@@ -3103,7 +3103,7 @@
         <v>5.984999999999999</v>
       </c>
       <c r="F137" t="n">
-        <v>0.01271214</v>
+        <v>12.71214</v>
       </c>
     </row>
     <row r="138">
@@ -3123,7 +3123,7 @@
         <v>6.045</v>
       </c>
       <c r="F138" t="n">
-        <v>0.01264614</v>
+        <v>12.64614</v>
       </c>
     </row>
     <row r="139">
@@ -3143,7 +3143,7 @@
         <v>6.24</v>
       </c>
       <c r="F139" t="n">
-        <v>0.01377792</v>
+        <v>13.77792</v>
       </c>
     </row>
     <row r="140">
@@ -3163,7 +3163,7 @@
         <v>8.295</v>
       </c>
       <c r="F140" t="n">
-        <v>0.01804992</v>
+        <v>18.04992</v>
       </c>
     </row>
     <row r="141">
@@ -3183,7 +3183,7 @@
         <v>5.654999999999999</v>
       </c>
       <c r="F141" t="n">
-        <v>0.01192074</v>
+        <v>11.92074</v>
       </c>
     </row>
     <row r="142">
@@ -3203,7 +3203,7 @@
         <v>6.09</v>
       </c>
       <c r="F142" t="n">
-        <v>0.01300824</v>
+        <v>13.00824</v>
       </c>
     </row>
     <row r="143">
@@ -3223,7 +3223,7 @@
         <v>5.865</v>
       </c>
       <c r="F143" t="n">
-        <v>0.01262148</v>
+        <v>12.62148</v>
       </c>
     </row>
     <row r="144">
@@ -3243,7 +3243,7 @@
         <v>5.774999999999999</v>
       </c>
       <c r="F144" t="n">
-        <v>0.012474</v>
+        <v>12.474</v>
       </c>
     </row>
     <row r="145">
@@ -3263,7 +3263,7 @@
         <v>9.6</v>
       </c>
       <c r="F145" t="n">
-        <v>0.020352</v>
+        <v>20.352</v>
       </c>
     </row>
     <row r="146">
@@ -3283,7 +3283,7 @@
         <v>7.319999999999999</v>
       </c>
       <c r="F146" t="n">
-        <v>0.01601616</v>
+        <v>16.01616</v>
       </c>
     </row>
     <row r="147">
@@ -3303,7 +3303,7 @@
         <v>6.194999999999999</v>
       </c>
       <c r="F147" t="n">
-        <v>0.01355466</v>
+        <v>13.55466</v>
       </c>
     </row>
     <row r="148">
@@ -3323,7 +3323,7 @@
         <v>8.775</v>
       </c>
       <c r="F148" t="n">
-        <v>0.0190593</v>
+        <v>19.0593</v>
       </c>
     </row>
     <row r="149">
@@ -3343,7 +3343,7 @@
         <v>7.364999999999999</v>
       </c>
       <c r="F149" t="n">
-        <v>0.0159084</v>
+        <v>15.9084</v>
       </c>
     </row>
     <row r="150">
@@ -3363,7 +3363,7 @@
         <v>6.075</v>
       </c>
       <c r="F150" t="n">
-        <v>0.0134622</v>
+        <v>13.4622</v>
       </c>
     </row>
     <row r="151">
@@ -3383,7 +3383,7 @@
         <v>8.94</v>
       </c>
       <c r="F151" t="n">
-        <v>0.01906008</v>
+        <v>19.06008</v>
       </c>
     </row>
     <row r="152">
@@ -3403,7 +3403,7 @@
         <v>9.359999999999999</v>
       </c>
       <c r="F152" t="n">
-        <v>0.0204048</v>
+        <v>20.4048</v>
       </c>
     </row>
     <row r="153">
@@ -3423,7 +3423,7 @@
         <v>9.375</v>
       </c>
       <c r="F153" t="n">
-        <v>0.0204</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="154">
@@ -3443,7 +3443,7 @@
         <v>9.375</v>
       </c>
       <c r="F154" t="n">
-        <v>0.0205875</v>
+        <v>20.5875</v>
       </c>
     </row>
     <row r="155">
@@ -3463,7 +3463,7 @@
         <v>9.48</v>
       </c>
       <c r="F155" t="n">
-        <v>0.020856</v>
+        <v>20.856</v>
       </c>
     </row>
     <row r="156">
@@ -3483,7 +3483,7 @@
         <v>6.495</v>
       </c>
       <c r="F156" t="n">
-        <v>0.01410714</v>
+        <v>14.10714</v>
       </c>
     </row>
     <row r="157">
@@ -3503,7 +3503,7 @@
         <v>5.7</v>
       </c>
       <c r="F157" t="n">
-        <v>0.0123348</v>
+        <v>12.3348</v>
       </c>
     </row>
     <row r="158">
@@ -3523,7 +3523,7 @@
         <v>5.685</v>
       </c>
       <c r="F158" t="n">
-        <v>0.01232508</v>
+        <v>12.32508</v>
       </c>
     </row>
     <row r="159">
@@ -3543,7 +3543,7 @@
         <v>5.625</v>
       </c>
       <c r="F159" t="n">
-        <v>0.012375</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="160">
@@ -3563,7 +3563,7 @@
         <v>5.819999999999999</v>
       </c>
       <c r="F160" t="n">
-        <v>0.01252464</v>
+        <v>12.52464</v>
       </c>
     </row>
     <row r="161">
@@ -3583,7 +3583,7 @@
         <v>6.12</v>
       </c>
       <c r="F161" t="n">
-        <v>0.0132192</v>
+        <v>13.2192</v>
       </c>
     </row>
     <row r="162">
@@ -3603,7 +3603,7 @@
         <v>6.21</v>
       </c>
       <c r="F162" t="n">
-        <v>0.013662</v>
+        <v>13.662</v>
       </c>
     </row>
     <row r="163">
@@ -3623,7 +3623,7 @@
         <v>6.66</v>
       </c>
       <c r="F163" t="n">
-        <v>0.0138528</v>
+        <v>13.8528</v>
       </c>
     </row>
     <row r="164">
@@ -3643,7 +3643,7 @@
         <v>6.93</v>
       </c>
       <c r="F164" t="n">
-        <v>0.01507968</v>
+        <v>15.07968</v>
       </c>
     </row>
     <row r="165">
@@ -3663,7 +3663,7 @@
         <v>7.17</v>
       </c>
       <c r="F165" t="n">
-        <v>0.01574532</v>
+        <v>15.74532</v>
       </c>
     </row>
     <row r="166">
@@ -3683,7 +3683,7 @@
         <v>8.865</v>
       </c>
       <c r="F166" t="n">
-        <v>0.01939662</v>
+        <v>19.39662</v>
       </c>
     </row>
     <row r="167">
@@ -3703,7 +3703,7 @@
         <v>9.254999999999999</v>
       </c>
       <c r="F167" t="n">
-        <v>0.0201759</v>
+        <v>20.1759</v>
       </c>
     </row>
     <row r="168">
@@ -3723,7 +3723,7 @@
         <v>9.074999999999999</v>
       </c>
       <c r="F168" t="n">
-        <v>0.0201828</v>
+        <v>20.1828</v>
       </c>
     </row>
     <row r="169">
@@ -3743,7 +3743,7 @@
         <v>12.675</v>
       </c>
       <c r="F169" t="n">
-        <v>0.0269217</v>
+        <v>26.9217</v>
       </c>
     </row>
     <row r="170">
@@ -3763,7 +3763,7 @@
         <v>14.445</v>
       </c>
       <c r="F170" t="n">
-        <v>0.03079674</v>
+        <v>30.79674</v>
       </c>
     </row>
     <row r="171">
@@ -3783,7 +3783,7 @@
         <v>14.46</v>
       </c>
       <c r="F171" t="n">
-        <v>0.03111792</v>
+        <v>31.11792</v>
       </c>
     </row>
     <row r="172">
@@ -3803,7 +3803,7 @@
         <v>14.55</v>
       </c>
       <c r="F172" t="n">
-        <v>0.0317772</v>
+        <v>31.7772</v>
       </c>
     </row>
     <row r="173">
@@ -3823,7 +3823,7 @@
         <v>14.67</v>
       </c>
       <c r="F173" t="n">
-        <v>0.03250872</v>
+        <v>32.50872</v>
       </c>
     </row>
     <row r="174">
@@ -3843,7 +3843,7 @@
         <v>15.585</v>
       </c>
       <c r="F174" t="n">
-        <v>0.03391296</v>
+        <v>33.91296</v>
       </c>
     </row>
     <row r="175">
@@ -3863,7 +3863,7 @@
         <v>15.06</v>
       </c>
       <c r="F175" t="n">
-        <v>0.0325296</v>
+        <v>32.5296</v>
       </c>
     </row>
     <row r="176">
@@ -3883,7 +3883,7 @@
         <v>14.22</v>
       </c>
       <c r="F176" t="n">
-        <v>0.0307152</v>
+        <v>30.7152</v>
       </c>
     </row>
     <row r="177">
@@ -3903,7 +3903,7 @@
         <v>13.905</v>
       </c>
       <c r="F177" t="n">
-        <v>0.0300348</v>
+        <v>30.0348</v>
       </c>
     </row>
     <row r="178">
@@ -3923,7 +3923,7 @@
         <v>12.06</v>
       </c>
       <c r="F178" t="n">
-        <v>0.0262908</v>
+        <v>26.2908</v>
       </c>
     </row>
     <row r="179">
@@ -3943,7 +3943,7 @@
         <v>11.55</v>
       </c>
       <c r="F179" t="n">
-        <v>0.0246246</v>
+        <v>24.6246</v>
       </c>
     </row>
     <row r="180">
@@ -3963,7 +3963,7 @@
         <v>10.245</v>
       </c>
       <c r="F180" t="n">
-        <v>0.02204724</v>
+        <v>22.04724</v>
       </c>
     </row>
     <row r="181">
@@ -3983,7 +3983,7 @@
         <v>10.41</v>
       </c>
       <c r="F181" t="n">
-        <v>0.02240232</v>
+        <v>22.40232</v>
       </c>
     </row>
     <row r="182">
@@ -4003,7 +4003,7 @@
         <v>9.705</v>
       </c>
       <c r="F182" t="n">
-        <v>0.0205746</v>
+        <v>20.5746</v>
       </c>
     </row>
     <row r="183">
@@ -4023,7 +4023,7 @@
         <v>9.855</v>
       </c>
       <c r="F183" t="n">
-        <v>0.02160216</v>
+        <v>21.60216</v>
       </c>
     </row>
     <row r="184">
@@ -4043,7 +4043,7 @@
         <v>9.615</v>
       </c>
       <c r="F184" t="n">
-        <v>0.02111454</v>
+        <v>21.11454</v>
       </c>
     </row>
     <row r="185">
@@ -4063,7 +4063,7 @@
         <v>9.494999999999999</v>
       </c>
       <c r="F185" t="n">
-        <v>0.02054718</v>
+        <v>20.54718</v>
       </c>
     </row>
     <row r="186">
@@ -4103,7 +4103,7 @@
         <v>5.13</v>
       </c>
       <c r="F187" t="n">
-        <v>0.0062586</v>
+        <v>6.258599999999999</v>
       </c>
     </row>
     <row r="188">
@@ -4123,7 +4123,7 @@
         <v>8.265000000000001</v>
       </c>
       <c r="F188" t="n">
-        <v>0.01811688</v>
+        <v>18.11688</v>
       </c>
     </row>
     <row r="189">
@@ -4143,7 +4143,7 @@
         <v>8.025</v>
       </c>
       <c r="F189" t="n">
-        <v>0.0175908</v>
+        <v>17.5908</v>
       </c>
     </row>
     <row r="190">
@@ -4163,7 +4163,7 @@
         <v>8.355</v>
       </c>
       <c r="F190" t="n">
-        <v>0.0180468</v>
+        <v>18.0468</v>
       </c>
     </row>
     <row r="191">
@@ -4183,7 +4183,7 @@
         <v>8.115</v>
       </c>
       <c r="F191" t="n">
-        <v>0.01775562</v>
+        <v>17.75562</v>
       </c>
     </row>
     <row r="192">
@@ -4203,7 +4203,7 @@
         <v>9.555</v>
       </c>
       <c r="F192" t="n">
-        <v>0.021021</v>
+        <v>21.021</v>
       </c>
     </row>
     <row r="193">
@@ -4223,7 +4223,7 @@
         <v>10.14</v>
       </c>
       <c r="F193" t="n">
-        <v>0.02202408</v>
+        <v>22.02408</v>
       </c>
     </row>
     <row r="194">
@@ -4243,7 +4243,7 @@
         <v>9.975</v>
       </c>
       <c r="F194" t="n">
-        <v>0.0220248</v>
+        <v>22.0248</v>
       </c>
     </row>
     <row r="195">
@@ -4263,7 +4263,7 @@
         <v>9.195</v>
       </c>
       <c r="F195" t="n">
-        <v>0.01993476</v>
+        <v>19.93476</v>
       </c>
     </row>
     <row r="196">
@@ -4283,7 +4283,7 @@
         <v>8.549999999999999</v>
       </c>
       <c r="F196" t="n">
-        <v>0.0185706</v>
+        <v>18.5706</v>
       </c>
     </row>
     <row r="197">
@@ -4303,7 +4303,7 @@
         <v>8.459999999999999</v>
       </c>
       <c r="F197" t="n">
-        <v>0.01813824</v>
+        <v>18.13824</v>
       </c>
     </row>
     <row r="198">
@@ -4323,7 +4323,7 @@
         <v>8.414999999999999</v>
       </c>
       <c r="F198" t="n">
-        <v>0.01881594</v>
+        <v>18.81594</v>
       </c>
     </row>
     <row r="199">
@@ -4343,7 +4343,7 @@
         <v>8.25</v>
       </c>
       <c r="F199" t="n">
-        <v>0.017754</v>
+        <v>17.754</v>
       </c>
     </row>
     <row r="200">
@@ -4363,7 +4363,7 @@
         <v>8.174999999999999</v>
       </c>
       <c r="F200" t="n">
-        <v>0.0175926</v>
+        <v>17.5926</v>
       </c>
     </row>
     <row r="201">
@@ -4383,7 +4383,7 @@
         <v>8.039999999999999</v>
       </c>
       <c r="F201" t="n">
-        <v>0.01759152</v>
+        <v>17.59152</v>
       </c>
     </row>
     <row r="202">
@@ -4403,7 +4403,7 @@
         <v>7.785</v>
       </c>
       <c r="F202" t="n">
-        <v>0.01672218</v>
+        <v>16.72218</v>
       </c>
     </row>
     <row r="203">
@@ -4423,7 +4423,7 @@
         <v>7.949999999999999</v>
       </c>
       <c r="F203" t="n">
-        <v>0.0172356</v>
+        <v>17.2356</v>
       </c>
     </row>
     <row r="204">
@@ -4443,7 +4443,7 @@
         <v>7.5</v>
       </c>
       <c r="F204" t="n">
-        <v>0.01665</v>
+        <v>16.65</v>
       </c>
     </row>
     <row r="205">
@@ -4463,7 +4463,7 @@
         <v>6.96</v>
       </c>
       <c r="F205" t="n">
-        <v>0.01472736</v>
+        <v>14.72736</v>
       </c>
     </row>
     <row r="206">
@@ -4483,7 +4483,7 @@
         <v>6.705</v>
       </c>
       <c r="F206" t="n">
-        <v>0.0143487</v>
+        <v>14.3487</v>
       </c>
     </row>
     <row r="207">
@@ -4503,7 +4503,7 @@
         <v>6.27</v>
       </c>
       <c r="F207" t="n">
-        <v>0.01359336</v>
+        <v>13.59336</v>
       </c>
     </row>
     <row r="208">
@@ -4523,7 +4523,7 @@
         <v>6.27</v>
       </c>
       <c r="F208" t="n">
-        <v>0.01339272</v>
+        <v>13.39272</v>
       </c>
     </row>
     <row r="209">
@@ -4543,7 +4543,7 @@
         <v>6.194999999999999</v>
       </c>
       <c r="F209" t="n">
-        <v>0.0131334</v>
+        <v>13.1334</v>
       </c>
     </row>
     <row r="210">
@@ -4563,7 +4563,7 @@
         <v>6.285</v>
       </c>
       <c r="F210" t="n">
-        <v>0.01385214</v>
+        <v>13.85214</v>
       </c>
     </row>
     <row r="211">
@@ -4583,7 +4583,7 @@
         <v>6.029999999999999</v>
       </c>
       <c r="F211" t="n">
-        <v>0.01288008</v>
+        <v>12.88008</v>
       </c>
     </row>
     <row r="212">
@@ -4603,7 +4603,7 @@
         <v>6.93</v>
       </c>
       <c r="F212" t="n">
-        <v>0.01466388</v>
+        <v>14.66388</v>
       </c>
     </row>
     <row r="213">
@@ -4623,7 +4623,7 @@
         <v>6.285</v>
       </c>
       <c r="F213" t="n">
-        <v>0.01365102</v>
+        <v>13.65102</v>
       </c>
     </row>
     <row r="214">
@@ -4643,7 +4643,7 @@
         <v>7.395</v>
       </c>
       <c r="F214" t="n">
-        <v>0.01600278</v>
+        <v>16.00278</v>
       </c>
     </row>
     <row r="215">
@@ -4663,7 +4663,7 @@
         <v>6.3</v>
       </c>
       <c r="F215" t="n">
-        <v>0.01386</v>
+        <v>13.86</v>
       </c>
     </row>
     <row r="216">
@@ -4683,7 +4683,7 @@
         <v>7.319999999999999</v>
       </c>
       <c r="F216" t="n">
-        <v>0.01592832</v>
+        <v>15.92832</v>
       </c>
     </row>
     <row r="217">
@@ -4703,7 +4703,7 @@
         <v>7.949999999999999</v>
       </c>
       <c r="F217" t="n">
-        <v>0.0172038</v>
+        <v>17.2038</v>
       </c>
     </row>
     <row r="218">
@@ -4723,7 +4723,7 @@
         <v>7.89</v>
       </c>
       <c r="F218" t="n">
-        <v>0.01707396</v>
+        <v>17.07396</v>
       </c>
     </row>
     <row r="219">
@@ -4743,7 +4743,7 @@
         <v>7.665</v>
       </c>
       <c r="F219" t="n">
-        <v>0.0170163</v>
+        <v>17.0163</v>
       </c>
     </row>
     <row r="220">
@@ -4763,7 +4763,7 @@
         <v>7.59</v>
       </c>
       <c r="F220" t="n">
-        <v>0.01615152</v>
+        <v>16.15152</v>
       </c>
     </row>
     <row r="221">
@@ -4783,7 +4783,7 @@
         <v>7.455</v>
       </c>
       <c r="F221" t="n">
-        <v>0.01583442</v>
+        <v>15.83442</v>
       </c>
     </row>
     <row r="222">
@@ -4803,7 +4803,7 @@
         <v>7.41</v>
       </c>
       <c r="F222" t="n">
-        <v>0.01621308</v>
+        <v>16.21308</v>
       </c>
     </row>
     <row r="223">
@@ -4823,7 +4823,7 @@
         <v>7.47</v>
       </c>
       <c r="F223" t="n">
-        <v>0.01580652</v>
+        <v>15.80652</v>
       </c>
     </row>
     <row r="224">
@@ -4843,7 +4843,7 @@
         <v>7.605</v>
       </c>
       <c r="F224" t="n">
-        <v>0.01630512</v>
+        <v>16.30512</v>
       </c>
     </row>
     <row r="225">
@@ -4863,7 +4863,7 @@
         <v>7.77</v>
       </c>
       <c r="F225" t="n">
-        <v>0.01675212</v>
+        <v>16.75212</v>
       </c>
     </row>
     <row r="226">
@@ -4883,7 +4883,7 @@
         <v>7.785</v>
       </c>
       <c r="F226" t="n">
-        <v>0.01678446</v>
+        <v>16.78446</v>
       </c>
     </row>
     <row r="227">
@@ -4903,7 +4903,7 @@
         <v>7.694999999999999</v>
       </c>
       <c r="F227" t="n">
-        <v>0.0166212</v>
+        <v>16.6212</v>
       </c>
     </row>
     <row r="228">
@@ -4923,7 +4923,7 @@
         <v>7.62</v>
       </c>
       <c r="F228" t="n">
-        <v>0.01603248</v>
+        <v>16.03248</v>
       </c>
     </row>
     <row r="229">
@@ -4943,7 +4943,7 @@
         <v>7.545</v>
       </c>
       <c r="F229" t="n">
-        <v>0.01635756</v>
+        <v>16.35756</v>
       </c>
     </row>
     <row r="230">
@@ -4963,7 +4963,7 @@
         <v>7.319999999999999</v>
       </c>
       <c r="F230" t="n">
-        <v>0.01543056</v>
+        <v>15.43056</v>
       </c>
     </row>
     <row r="231">
@@ -4983,7 +4983,7 @@
         <v>7.245</v>
       </c>
       <c r="F231" t="n">
-        <v>0.01591002</v>
+        <v>15.91002</v>
       </c>
     </row>
     <row r="232">
@@ -5003,7 +5003,7 @@
         <v>7.26</v>
       </c>
       <c r="F232" t="n">
-        <v>0.01542024</v>
+        <v>15.42024</v>
       </c>
     </row>
     <row r="233">
@@ -5023,7 +5023,7 @@
         <v>7.319999999999999</v>
       </c>
       <c r="F233" t="n">
-        <v>0.0155184</v>
+        <v>15.5184</v>
       </c>
     </row>
     <row r="234">
@@ -5043,7 +5043,7 @@
         <v>6.825</v>
       </c>
       <c r="F234" t="n">
-        <v>0.0149058</v>
+        <v>14.9058</v>
       </c>
     </row>
     <row r="235">
@@ -5063,7 +5063,7 @@
         <v>6.524999999999999</v>
       </c>
       <c r="F235" t="n">
-        <v>0.014616</v>
+        <v>14.616</v>
       </c>
     </row>
     <row r="236">
@@ -5083,7 +5083,7 @@
         <v>6.48</v>
       </c>
       <c r="F236" t="n">
-        <v>0.01381536</v>
+        <v>13.81536</v>
       </c>
     </row>
     <row r="237">
@@ -5103,7 +5103,7 @@
         <v>6.375</v>
       </c>
       <c r="F237" t="n">
-        <v>0.0135915</v>
+        <v>13.5915</v>
       </c>
     </row>
     <row r="238">
@@ -5123,7 +5123,7 @@
         <v>6.285</v>
       </c>
       <c r="F238" t="n">
-        <v>0.0131985</v>
+        <v>13.1985</v>
       </c>
     </row>
     <row r="239">
@@ -5143,7 +5143,7 @@
         <v>6.12</v>
       </c>
       <c r="F239" t="n">
-        <v>0.01317024</v>
+        <v>13.17024</v>
       </c>
     </row>
     <row r="240">
@@ -5163,7 +5163,7 @@
         <v>5.97</v>
       </c>
       <c r="F240" t="n">
-        <v>0.0130146</v>
+        <v>13.0146</v>
       </c>
     </row>
     <row r="241">
@@ -5183,7 +5183,7 @@
         <v>5.85</v>
       </c>
       <c r="F241" t="n">
-        <v>0.0129402</v>
+        <v>12.9402</v>
       </c>
     </row>
     <row r="242">
@@ -5203,7 +5203,7 @@
         <v>5.984999999999999</v>
       </c>
       <c r="F242" t="n">
-        <v>0.01331064</v>
+        <v>13.31064</v>
       </c>
     </row>
     <row r="243">
@@ -5223,7 +5223,7 @@
         <v>5.52</v>
       </c>
       <c r="F243" t="n">
-        <v>0.0118128</v>
+        <v>11.8128</v>
       </c>
     </row>
     <row r="244">
@@ -5243,7 +5243,7 @@
         <v>5.265</v>
       </c>
       <c r="F244" t="n">
-        <v>0.01139346</v>
+        <v>11.39346</v>
       </c>
     </row>
     <row r="245">
@@ -5263,7 +5263,7 @@
         <v>5.1</v>
       </c>
       <c r="F245" t="n">
-        <v>0.0113016</v>
+        <v>11.3016</v>
       </c>
     </row>
     <row r="246">
@@ -5283,7 +5283,7 @@
         <v>5.085</v>
       </c>
       <c r="F246" t="n">
-        <v>0.01065816</v>
+        <v>10.65816</v>
       </c>
     </row>
     <row r="247">
@@ -5303,7 +5303,7 @@
         <v>5.024999999999999</v>
       </c>
       <c r="F247" t="n">
-        <v>0.011055</v>
+        <v>11.055</v>
       </c>
     </row>
     <row r="248">
@@ -5323,7 +5323,7 @@
         <v>4.95</v>
       </c>
       <c r="F248" t="n">
-        <v>0.010593</v>
+        <v>10.593</v>
       </c>
     </row>
     <row r="249">
@@ -5343,7 +5343,7 @@
         <v>4.905</v>
       </c>
       <c r="F249" t="n">
-        <v>0.01037898</v>
+        <v>10.37898</v>
       </c>
     </row>
     <row r="250">
@@ -5363,7 +5363,7 @@
         <v>4.815</v>
       </c>
       <c r="F250" t="n">
-        <v>0.0104967</v>
+        <v>10.4967</v>
       </c>
     </row>
     <row r="251">
@@ -5383,7 +5383,7 @@
         <v>4.59</v>
       </c>
       <c r="F251" t="n">
-        <v>0.009804240000000001</v>
+        <v>9.80424</v>
       </c>
     </row>
     <row r="252">
@@ -5403,7 +5403,7 @@
         <v>4.44</v>
       </c>
       <c r="F252" t="n">
-        <v>0.009608159999999999</v>
+        <v>9.60816</v>
       </c>
     </row>
     <row r="253">
@@ -5423,7 +5423,7 @@
         <v>4.305</v>
       </c>
       <c r="F253" t="n">
-        <v>0.0093849</v>
+        <v>9.3849</v>
       </c>
     </row>
     <row r="254">
@@ -5443,7 +5443,7 @@
         <v>4.065</v>
       </c>
       <c r="F254" t="n">
-        <v>0.008829179999999999</v>
+        <v>8.829179999999999</v>
       </c>
     </row>
     <row r="255">
@@ -5463,7 +5463,7 @@
         <v>3.75</v>
       </c>
       <c r="F255" t="n">
-        <v>0.008085</v>
+        <v>8.085000000000001</v>
       </c>
     </row>
     <row r="256">
@@ -5483,7 +5483,7 @@
         <v>3.705</v>
       </c>
       <c r="F256" t="n">
-        <v>0.008047260000000002</v>
+        <v>8.047260000000001</v>
       </c>
     </row>
     <row r="257">
@@ -5503,7 +5503,7 @@
         <v>3.51</v>
       </c>
       <c r="F257" t="n">
-        <v>0.00769392</v>
+        <v>7.69392</v>
       </c>
     </row>
     <row r="258">
@@ -5523,7 +5523,7 @@
         <v>3.435</v>
       </c>
       <c r="F258" t="n">
-        <v>0.007515780000000001</v>
+        <v>7.515780000000001</v>
       </c>
     </row>
     <row r="259">
@@ -5543,7 +5543,7 @@
         <v>3.225</v>
       </c>
       <c r="F259" t="n">
-        <v>0.006966000000000001</v>
+        <v>6.966000000000001</v>
       </c>
     </row>
     <row r="260">
@@ -5563,7 +5563,7 @@
         <v>3.12</v>
       </c>
       <c r="F260" t="n">
-        <v>0.006913920000000001</v>
+        <v>6.913920000000001</v>
       </c>
     </row>
     <row r="261">
@@ -5583,7 +5583,7 @@
         <v>2.97</v>
       </c>
       <c r="F261" t="n">
-        <v>0.00655776</v>
+        <v>6.55776</v>
       </c>
     </row>
     <row r="262">
@@ -5603,7 +5603,7 @@
         <v>2.64</v>
       </c>
       <c r="F262" t="n">
-        <v>0.005808</v>
+        <v>5.808</v>
       </c>
     </row>
     <row r="263">
@@ -5623,7 +5623,7 @@
         <v>2.61</v>
       </c>
       <c r="F263" t="n">
-        <v>0.005742</v>
+        <v>5.742</v>
       </c>
     </row>
     <row r="264">
@@ -5643,7 +5643,7 @@
         <v>2.58</v>
       </c>
       <c r="F264" t="n">
-        <v>0.005768880000000001</v>
+        <v>5.768880000000001</v>
       </c>
     </row>
     <row r="265">
@@ -5663,7 +5663,7 @@
         <v>2.52</v>
       </c>
       <c r="F265" t="n">
-        <v>0.00556416</v>
+        <v>5.56416</v>
       </c>
     </row>
     <row r="266">
@@ -5683,7 +5683,7 @@
         <v>2.415</v>
       </c>
       <c r="F266" t="n">
-        <v>0.00520674</v>
+        <v>5.20674</v>
       </c>
     </row>
     <row r="267">
@@ -5703,7 +5703,7 @@
         <v>2.325</v>
       </c>
       <c r="F267" t="n">
-        <v>0.0051894</v>
+        <v>5.1894</v>
       </c>
     </row>
     <row r="268">
@@ -5723,7 +5723,7 @@
         <v>2.265</v>
       </c>
       <c r="F268" t="n">
-        <v>0.0050283</v>
+        <v>5.028300000000001</v>
       </c>
     </row>
     <row r="269">
@@ -5743,7 +5743,7 @@
         <v>2.1</v>
       </c>
       <c r="F269" t="n">
-        <v>0.0046788</v>
+        <v>4.678800000000001</v>
       </c>
     </row>
     <row r="270">
@@ -5763,7 +5763,7 @@
         <v>1.995</v>
       </c>
       <c r="F270" t="n">
-        <v>0.00442092</v>
+        <v>4.42092</v>
       </c>
     </row>
     <row r="271">
@@ -5783,7 +5783,7 @@
         <v>1.77</v>
       </c>
       <c r="F271" t="n">
-        <v>0.00391524</v>
+        <v>3.91524</v>
       </c>
     </row>
     <row r="272">
@@ -5803,7 +5803,7 @@
         <v>1.725</v>
       </c>
       <c r="F272" t="n">
-        <v>0.0038778</v>
+        <v>3.8778</v>
       </c>
     </row>
     <row r="273">
@@ -5823,7 +5823,7 @@
         <v>1.575</v>
       </c>
       <c r="F273" t="n">
-        <v>0.0034524</v>
+        <v>3.4524</v>
       </c>
     </row>
     <row r="274">
@@ -5843,7 +5843,7 @@
         <v>1.425</v>
       </c>
       <c r="F274" t="n">
-        <v>0.0030666</v>
+        <v>3.0666</v>
       </c>
     </row>
     <row r="275">
@@ -5863,7 +5863,7 @@
         <v>1.29</v>
       </c>
       <c r="F275" t="n">
-        <v>0.002817360000000001</v>
+        <v>2.817360000000001</v>
       </c>
     </row>
     <row r="276">
@@ -5883,7 +5883,7 @@
         <v>1.125</v>
       </c>
       <c r="F276" t="n">
-        <v>0.002529</v>
+        <v>2.529</v>
       </c>
     </row>
     <row r="277">
@@ -5903,7 +5903,7 @@
         <v>1.065</v>
       </c>
       <c r="F277" t="n">
-        <v>0.00230466</v>
+        <v>2.30466</v>
       </c>
     </row>
     <row r="278">
@@ -5923,7 +5923,7 @@
         <v>1.005</v>
       </c>
       <c r="F278" t="n">
-        <v>0.00225924</v>
+        <v>2.25924</v>
       </c>
     </row>
     <row r="279">
@@ -5943,7 +5943,7 @@
         <v>0.7949999999999999</v>
       </c>
       <c r="F279" t="n">
-        <v>0.0017967</v>
+        <v>1.7967</v>
       </c>
     </row>
     <row r="280">
@@ -5963,7 +5963,7 @@
         <v>0.75</v>
       </c>
       <c r="F280" t="n">
-        <v>0.001758</v>
+        <v>1.758</v>
       </c>
     </row>
     <row r="281">
@@ -5983,7 +5983,7 @@
         <v>0.72</v>
       </c>
       <c r="F281" t="n">
-        <v>0.00182304</v>
+        <v>1.82304</v>
       </c>
     </row>
     <row r="282">
@@ -6003,7 +6003,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="F282" t="n">
-        <v>0.0016836</v>
+        <v>1.6836</v>
       </c>
     </row>
     <row r="283">
@@ -6023,7 +6023,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="F283" t="n">
-        <v>0.00156768</v>
+        <v>1.56768</v>
       </c>
     </row>
     <row r="284">
@@ -6043,7 +6043,7 @@
         <v>0.645</v>
       </c>
       <c r="F284" t="n">
-        <v>0.00109134</v>
+        <v>1.09134</v>
       </c>
     </row>
     <row r="285">
@@ -6063,7 +6063,7 @@
         <v>0.6</v>
       </c>
       <c r="F285" t="n">
-        <v>0.0009624000000000001</v>
+        <v>0.9624</v>
       </c>
     </row>
     <row r="286">
@@ -6083,7 +6083,7 @@
         <v>0.54</v>
       </c>
       <c r="F286" t="n">
-        <v>0.0007754400000000001</v>
+        <v>0.77544</v>
       </c>
     </row>
     <row r="287">
@@ -6103,7 +6103,7 @@
         <v>0.45</v>
       </c>
       <c r="F287" t="n">
-        <v>0.0005436</v>
+        <v>0.5436</v>
       </c>
     </row>
     <row r="288">
@@ -6123,7 +6123,7 @@
         <v>0.435</v>
       </c>
       <c r="F288" t="n">
-        <v>0.0005098199999999999</v>
+        <v>0.5098199999999999</v>
       </c>
     </row>
     <row r="289">
@@ -6143,7 +6143,7 @@
         <v>0.405</v>
       </c>
       <c r="F289" t="n">
-        <v>0.00046008</v>
+        <v>0.46008</v>
       </c>
     </row>
     <row r="290">
@@ -6163,7 +6163,7 @@
         <v>0.375</v>
       </c>
       <c r="F290" t="n">
-        <v>0.0004005</v>
+        <v>0.4005</v>
       </c>
     </row>
     <row r="291">
@@ -6183,7 +6183,7 @@
         <v>0.315</v>
       </c>
       <c r="F291" t="n">
-        <v>0.00030744</v>
+        <v>0.30744</v>
       </c>
     </row>
     <row r="292">
@@ -6203,7 +6203,7 @@
         <v>0.285</v>
       </c>
       <c r="F292" t="n">
-        <v>0.00026904</v>
+        <v>0.26904</v>
       </c>
     </row>
     <row r="293">
@@ -6223,7 +6223,7 @@
         <v>0.165</v>
       </c>
       <c r="F293" t="n">
-        <v>0.00012276</v>
+        <v>0.12276</v>
       </c>
     </row>
     <row r="294">
@@ -6243,7 +6243,7 @@
         <v>0.18</v>
       </c>
       <c r="F294" t="n">
-        <v>0.00014328</v>
+        <v>0.14328</v>
       </c>
     </row>
     <row r="295">
@@ -6263,7 +6263,7 @@
         <v>0.15</v>
       </c>
       <c r="F295" t="n">
-        <v>0.0001104</v>
+        <v>0.1104</v>
       </c>
     </row>
     <row r="296">
@@ -6283,7 +6283,7 @@
         <v>0.15</v>
       </c>
       <c r="F296" t="n">
-        <v>0.0001062</v>
+        <v>0.1062</v>
       </c>
     </row>
     <row r="297">
@@ -6303,7 +6303,7 @@
         <v>0.135</v>
       </c>
       <c r="F297" t="n">
-        <v>8.532e-05</v>
+        <v>0.08532000000000001</v>
       </c>
     </row>
     <row r="298">
@@ -6323,7 +6323,7 @@
         <v>0.105</v>
       </c>
       <c r="F298" t="n">
-        <v>6.006e-05</v>
+        <v>0.06006</v>
       </c>
     </row>
     <row r="299">
@@ -6343,7 +6343,7 @@
         <v>0.105</v>
       </c>
       <c r="F299" t="n">
-        <v>5.796000000000001e-05</v>
+        <v>0.05796</v>
       </c>
     </row>
     <row r="300">
@@ -6363,7 +6363,7 @@
         <v>0.09</v>
       </c>
       <c r="F300" t="n">
-        <v>4.68e-05</v>
+        <v>0.0468</v>
       </c>
     </row>
     <row r="301">
@@ -6383,7 +6383,7 @@
         <v>0.09</v>
       </c>
       <c r="F301" t="n">
-        <v>4.536e-05</v>
+        <v>0.04536</v>
       </c>
     </row>
     <row r="302">
@@ -6403,7 +6403,7 @@
         <v>0.045</v>
       </c>
       <c r="F302" t="n">
-        <v>1.926e-05</v>
+        <v>0.01926</v>
       </c>
     </row>
     <row r="303">
@@ -6423,7 +6423,7 @@
         <v>0.045</v>
       </c>
       <c r="F303" t="n">
-        <v>1.872e-05</v>
+        <v>0.01872</v>
       </c>
     </row>
     <row r="304">
